--- a/172/REFINE/AXON_172_paw_critical_operation_ext.xlsx
+++ b/172/REFINE/AXON_172_paw_critical_operation_ext.xlsx
@@ -15,60 +15,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
-  <si>
-    <t>ATTRIBUTE_NAME</t>
-  </si>
-  <si>
-    <t>DATA_TYPE</t>
-  </si>
-  <si>
-    <t>TECHNICAL_NAME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+  <si>
+    <t>ATTRIBUTE NAME</t>
+  </si>
+  <si>
+    <t>TECHNICAL NAME</t>
   </si>
   <si>
     <t>DEFINITION</t>
   </si>
   <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
     <t>BUSINESS LOGIC</t>
   </si>
   <si>
-    <t>EXTENSION_ID</t>
-  </si>
-  <si>
-    <t>FINALVALUE</t>
-  </si>
-  <si>
-    <t>INITIALVALUE</t>
-  </si>
-  <si>
-    <t>R_DEL_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_DEL_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_FCLTY_CD</t>
-  </si>
-  <si>
-    <t>R_INS_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_INS_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_RCRD_STS_CD</t>
-  </si>
-  <si>
-    <t>R_UPD_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_UPD_TMSTMP</t>
-  </si>
-  <si>
-    <t>R_LOAD_ID</t>
-  </si>
-  <si>
-    <t>R_SRC_ID</t>
+    <t>extension_id</t>
+  </si>
+  <si>
+    <t>finalvalue</t>
+  </si>
+  <si>
+    <t>initialvalue</t>
+  </si>
+  <si>
+    <t>r_del_load_id</t>
+  </si>
+  <si>
+    <t>r_del_tmstmp</t>
+  </si>
+  <si>
+    <t>r_fclty_cd</t>
+  </si>
+  <si>
+    <t>r_ins_load_id</t>
+  </si>
+  <si>
+    <t>r_ins_tmstmp</t>
+  </si>
+  <si>
+    <t>r_rcrd_sts_cd</t>
+  </si>
+  <si>
+    <t>r_upd_load_id</t>
+  </si>
+  <si>
+    <t>r_upd_tmstmp</t>
+  </si>
+  <si>
+    <t>r_load_id</t>
+  </si>
+  <si>
+    <t>r_src_id</t>
+  </si>
+  <si>
+    <t>COLUMN extension_id OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN finalvalue OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN initialvalue OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_del_load_id OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_del_tmstmp OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_fclty_cd OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_ins_load_id OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_ins_tmstmp OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_rcrd_sts_cd OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_upd_load_id OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_upd_tmstmp OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_load_id OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
+  </si>
+  <si>
+    <t>COLUMN r_src_id OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
   </si>
   <si>
     <t>DECIMAL(10,0)</t>
@@ -78,45 +117,6 @@
   </si>
   <si>
     <t>BIGINT</t>
-  </si>
-  <si>
-    <t>COLUMN EXTENSION_ID OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
-  </si>
-  <si>
-    <t>COLUMN FINALVALUE OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
-  </si>
-  <si>
-    <t>COLUMN INITIALVALUE OF TABLE PAW_CRITICAL_OPERATION_EXT</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the physical deletion of the record in the source, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the physical deletion of the record in the source in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. SAP Facility code identifying the source site of the record. It is populated by the AWS Glue Job based on the content of source_system_cnf manual table.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the first insert, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the first insert of the record in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Record status code (A = active, D = deleted).</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the last update transaction on the record, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. String (YYYY-MM-DD HH:MM:SS.SSSSSS) identifying the timestamp of the last update transaction on the record in CAVEAU Refine Layer</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. Alphanumeric Job execution ID related to the last Job run, generated by AWS Glue service.</t>
-  </si>
-  <si>
-    <t>Technical Fields in CAVEAU Refine Layer. This is a Source system identifier in CAVEAU Architecture.</t>
   </si>
   <si>
     <t>SOURCE(S)</t>
@@ -517,13 +517,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -531,13 +531,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -545,13 +545,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -559,13 +559,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -573,13 +573,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -587,13 +587,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -601,13 +601,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -615,13 +615,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -629,13 +629,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -643,13 +643,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -671,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>32</v>
@@ -685,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -701,7 +701,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -763,6 +763,146 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
